--- a/biology/Zoologie/Corail_de_feu_branchu/Corail_de_feu_branchu.xlsx
+++ b/biology/Zoologie/Corail_de_feu_branchu/Corail_de_feu_branchu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Millepora alcicornis
 Le corail de feu branchu s'organise en colonies formant une structure branchue. Les ramifications de ses branches sont cylindriques, généralement dans un seul plan mais parfois dans toutes les directions. Ils encroûtent souvent les colonies de gorgones et prennent leur forme. Leur surface est lisse ponctuée de minuscules pores comme des trous d'aiguilles. Les polypes étendus apparaissent comme un fin duvet.
@@ -513,7 +525,9 @@
           <t>Abondance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Abondant à commun dans les Caraïbes.
 </t>
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans tous les environnements marins, peu commune en zones battues peu profondes.
 </t>
@@ -575,7 +591,9 @@
           <t>Profondeur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plus de 10 mètres.
 </t>
@@ -606,7 +624,9 @@
           <t>Effets</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Urticant : le contact avec la peau nue produit une intense brûlure durant peu de temps
 rougeurs, éruptions et marques.</t>
